--- a/data/Moore_R10_PDS.xlsx
+++ b/data/Moore_R10_PDS.xlsx
@@ -13,7 +13,7 @@
     <sheet name="TeacherBB" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Moore_R10_PDS" localSheetId="0">Moore_R10_PDS!$A$1:$K$28</definedName>
+    <definedName name="Moore_R10_PDS" localSheetId="0">Moore_R10_PDS!$A$1:$K$34</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="56">
   <si>
     <t>Correct;#Resets;#OQs;#EQs;#symbols;fileName;Algorithm;CEprocessing;Teacher;BB;</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>BlackBoxDFSM</t>
+  </si>
+  <si>
+    <t>TTT</t>
+  </si>
+  <si>
+    <t>Quotient</t>
   </si>
 </sst>
 </file>
@@ -781,21 +787,21 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Moore_R10_PDS!$G$2:$H$10</c:f>
+              <c:f>Moore_R10_PDS!$G$2:$H$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>addAllPrefixesToS</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>addAllSuffixesAfterLastStateToE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>addSuffix1by1ToE</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>addSuffixAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>addAllSuffixesAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>addSuffix1by1ToE</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>addSuffixToE_binarySearch</c:v>
@@ -837,6 +843,12 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>OP</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>TTT</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Quotient</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -844,27 +856,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Moore_R10_PDS!$B$2:$B$10</c:f>
+              <c:f>Moore_R10_PDS!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>342</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>328</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>339</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>260</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>621</c:v>
@@ -874,6 +886,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,21 +914,21 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Moore_R10_PDS!$G$2:$H$10</c:f>
+              <c:f>Moore_R10_PDS!$G$2:$H$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>addAllPrefixesToS</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>addAllSuffixesAfterLastStateToE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>addSuffix1by1ToE</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>addSuffixAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>addAllSuffixesAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>addSuffix1by1ToE</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>addSuffixToE_binarySearch</c:v>
@@ -952,6 +970,12 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>OP</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>TTT</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Quotient</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -959,36 +983,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Moore_R10_PDS!$C$2:$C$10</c:f>
+              <c:f>Moore_R10_PDS!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>912</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>677</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>656</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>656</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>678</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>521</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1237</c:v>
+                  <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>999</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>749</c:v>
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1011,21 +1041,21 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Moore_R10_PDS!$G$2:$H$10</c:f>
+              <c:f>Moore_R10_PDS!$G$2:$H$12</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>addAllPrefixesToS</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>addAllSuffixesAfterLastStateToE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>addSuffix1by1ToE</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>addSuffixAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>addAllSuffixesAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>addSuffix1by1ToE</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>addSuffixToE_binarySearch</c:v>
@@ -1067,6 +1097,12 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>OP</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>TTT</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Quotient</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1074,27 +1110,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Moore_R10_PDS!$E$2:$E$10</c:f>
+              <c:f>Moore_R10_PDS!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1363</c:v>
+                  <c:v>1346</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1324</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1324</c:v>
+                  <c:v>1363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1356</c:v>
+                  <c:v>1378</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1063</c:v>
+                  <c:v>1007</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3009</c:v>
@@ -1104,6 +1140,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1586</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,8 +1162,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223350784"/>
-        <c:axId val="223352320"/>
+        <c:axId val="9964928"/>
+        <c:axId val="9966720"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1140,75 +1182,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Moore_R10_PDS!$G$2:$H$10</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>addAllPrefixesToS</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>addSuffixAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>addAllSuffixesAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>addSuffix1by1ToE</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>addSuffixToE_binarySearch</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>AllGlobally</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>OneGlobally</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>OneLocally</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>L*</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>L*</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>L*</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>L*</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>L*</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>DT</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>OP</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>OP</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>OP</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Moore_R10_PDS!$D$2:$D$10</c:f>
+              <c:f>Moore_R10_PDS!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1234,6 +1213,12 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1251,11 +1236,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223356032"/>
-        <c:axId val="223353856"/>
+        <c:axId val="9974528"/>
+        <c:axId val="9968256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223350784"/>
+        <c:axId val="9964928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,7 +1249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223352320"/>
+        <c:crossAx val="9966720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1272,7 +1257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223352320"/>
+        <c:axId val="9966720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,12 +1268,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223350784"/>
+        <c:crossAx val="9964928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="223353856"/>
+        <c:axId val="9968256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,12 +1302,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223356032"/>
+        <c:crossAx val="9974528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="223356032"/>
+        <c:axId val="9974528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,7 +1316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223353856"/>
+        <c:crossAx val="9968256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1387,21 +1372,21 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Moore_R10_PDS!$G$11:$H$19</c:f>
+              <c:f>Moore_R10_PDS!$G$13:$H$23</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>addAllPrefixesToS</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>addAllSuffixesAfterLastStateToE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>addSuffix1by1ToE</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>addSuffixAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>addAllSuffixesAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>addSuffix1by1ToE</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>addSuffixToE_binarySearch</c:v>
@@ -1443,6 +1428,12 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>OP</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>TTT</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Quotient</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1450,27 +1441,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Moore_R10_PDS!$B$11:$B$19</c:f>
+              <c:f>Moore_R10_PDS!$B$13:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>585</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>385</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>369</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>382</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>260</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>905</c:v>
@@ -1480,6 +1471,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,21 +1499,21 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Moore_R10_PDS!$G$11:$H$19</c:f>
+              <c:f>Moore_R10_PDS!$G$13:$H$23</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>addAllPrefixesToS</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>addAllSuffixesAfterLastStateToE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>addSuffix1by1ToE</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>addSuffixAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>addAllSuffixesAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>addSuffix1by1ToE</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>addSuffixToE_binarySearch</c:v>
@@ -1558,6 +1555,12 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>OP</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>TTT</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Quotient</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1565,36 +1568,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Moore_R10_PDS!$C$11:$C$19</c:f>
+              <c:f>Moore_R10_PDS!$C$13:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1170</c:v>
+                  <c:v>585</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>762</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>738</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>738</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>764</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>521</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1805</c:v>
+                  <c:v>905</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>999</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>749</c:v>
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1617,21 +1626,21 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Moore_R10_PDS!$G$11:$H$19</c:f>
+              <c:f>Moore_R10_PDS!$G$13:$H$23</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>addAllPrefixesToS</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>addAllSuffixesAfterLastStateToE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>addSuffix1by1ToE</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>addSuffixAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>addAllSuffixesAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>addSuffix1by1ToE</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>addSuffixToE_binarySearch</c:v>
@@ -1673,6 +1682,12 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>OP</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>TTT</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Quotient</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1680,27 +1695,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Moore_R10_PDS!$E$11:$E$19</c:f>
+              <c:f>Moore_R10_PDS!$E$13:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3360</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1513</c:v>
+                  <c:v>1495</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1469</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1469</c:v>
+                  <c:v>1513</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1506</c:v>
+                  <c:v>1532</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1063</c:v>
+                  <c:v>1007</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5016</c:v>
@@ -1710,6 +1725,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1586</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,8 +1747,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209159680"/>
-        <c:axId val="213159936"/>
+        <c:axId val="10110848"/>
+        <c:axId val="10112384"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1748,10 +1769,10 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Moore_R10_PDS!$D$11:$D$19</c:f>
+              <c:f>Moore_R10_PDS!$D$13:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1777,6 +1798,12 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1794,11 +1821,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213174528"/>
-        <c:axId val="213161856"/>
+        <c:axId val="10120192"/>
+        <c:axId val="10118272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="209159680"/>
+        <c:axId val="10110848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,7 +1834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213159936"/>
+        <c:crossAx val="10112384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1815,7 +1842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213159936"/>
+        <c:axId val="10112384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,12 +1853,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209159680"/>
+        <c:crossAx val="10110848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213161856"/>
+        <c:axId val="10118272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1860,12 +1887,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213174528"/>
+        <c:crossAx val="10120192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="213174528"/>
+        <c:axId val="10120192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,7 +1901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213161856"/>
+        <c:crossAx val="10118272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1930,21 +1957,21 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Moore_R10_PDS!$G$20:$H$28</c:f>
+              <c:f>Moore_R10_PDS!$G$24:$H$34</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>addAllPrefixesToS</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>addAllSuffixesAfterLastStateToE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>addSuffix1by1ToE</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>addSuffixAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>addAllSuffixesAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>addSuffix1by1ToE</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>addSuffixToE_binarySearch</c:v>
@@ -1986,6 +2013,12 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>OP</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>TTT</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Quotient</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1993,27 +2026,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Moore_R10_PDS!$B$20:$B$28</c:f>
+              <c:f>Moore_R10_PDS!$B$24:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1515</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1447</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1418</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1529</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1529</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1422</c:v>
+                  <c:v>1424</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1343</c:v>
+                  <c:v>1336</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1838</c:v>
@@ -2023,6 +2056,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2045,21 +2084,21 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Moore_R10_PDS!$G$20:$H$28</c:f>
+              <c:f>Moore_R10_PDS!$G$24:$H$34</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>addAllPrefixesToS</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>addAllSuffixesAfterLastStateToE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>addSuffix1by1ToE</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>addSuffixAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>addAllSuffixesAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>addSuffix1by1ToE</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>addSuffixToE_binarySearch</c:v>
@@ -2101,6 +2140,12 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>OP</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>TTT</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Quotient</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2108,36 +2153,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Moore_R10_PDS!$C$20:$C$28</c:f>
+              <c:f>Moore_R10_PDS!$C$24:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1040</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>592</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>820</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>820</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>606</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>517</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1655</c:v>
+                  <c:v>830</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1015</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>767</c:v>
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2160,21 +2211,21 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Moore_R10_PDS!$G$20:$H$28</c:f>
+              <c:f>Moore_R10_PDS!$G$24:$H$34</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>addAllPrefixesToS</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>addAllSuffixesAfterLastStateToE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>addSuffix1by1ToE</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>addSuffixAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>addAllSuffixesAfterLastStateToE</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>addSuffix1by1ToE</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>addSuffixToE_binarySearch</c:v>
@@ -2216,6 +2267,12 @@
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>OP</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>TTT</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Quotient</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2223,24 +2280,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Moore_R10_PDS!$E$20:$E$28</c:f>
+              <c:f>Moore_R10_PDS!$E$24:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>7288</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7940</c:v>
+                  <c:v>7938</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7940</c:v>
+                  <c:v>7938</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7940</c:v>
+                  <c:v>7938</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7940</c:v>
+                  <c:v>7938</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7726</c:v>
@@ -2253,6 +2310,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8181</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7735</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,8 +2332,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144263808"/>
-        <c:axId val="144269696"/>
+        <c:axId val="10177152"/>
+        <c:axId val="10187136"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2291,10 +2354,10 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Moore_R10_PDS!$D$20:$D$28</c:f>
+              <c:f>Moore_R10_PDS!$D$24:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -2320,6 +2383,12 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -2337,11 +2406,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="210829312"/>
-        <c:axId val="144271232"/>
+        <c:axId val="10194944"/>
+        <c:axId val="10188672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144263808"/>
+        <c:axId val="10177152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2350,7 +2419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144269696"/>
+        <c:crossAx val="10187136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2358,7 +2427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144269696"/>
+        <c:axId val="10187136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2369,12 +2438,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144263808"/>
+        <c:crossAx val="10177152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144271232"/>
+        <c:axId val="10188672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2403,12 +2472,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210829312"/>
+        <c:crossAx val="10194944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="210829312"/>
+        <c:axId val="10194944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2417,7 +2486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144271232"/>
+        <c:crossAx val="10188672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2842,10 +2911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2905,7 +2974,7 @@
         <v>456</v>
       </c>
       <c r="C2">
-        <v>912</v>
+        <v>456</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -2934,16 +3003,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C3">
-        <v>677</v>
+        <v>335</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>1363</v>
+        <v>1346</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -2952,7 +3021,7 @@
         <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
         <v>41</v>
@@ -2969,7 +3038,7 @@
         <v>328</v>
       </c>
       <c r="C4">
-        <v>656</v>
+        <v>328</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -2984,7 +3053,7 @@
         <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
         <v>41</v>
@@ -2998,16 +3067,16 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="C5">
-        <v>656</v>
+        <v>342</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>1324</v>
+        <v>1363</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -3016,7 +3085,7 @@
         <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
         <v>41</v>
@@ -3030,16 +3099,16 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C6">
-        <v>678</v>
+        <v>346</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6">
-        <v>1356</v>
+        <v>1378</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
@@ -3062,16 +3131,16 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C7">
-        <v>521</v>
+        <v>247</v>
       </c>
       <c r="D7">
         <v>9</v>
       </c>
       <c r="E7">
-        <v>1063</v>
+        <v>1007</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -3094,7 +3163,7 @@
         <v>621</v>
       </c>
       <c r="C8">
-        <v>1237</v>
+        <v>621</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -3126,7 +3195,7 @@
         <v>504</v>
       </c>
       <c r="C9">
-        <v>999</v>
+        <v>504</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -3158,7 +3227,7 @@
         <v>379</v>
       </c>
       <c r="C10">
-        <v>749</v>
+        <v>379</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -3187,28 +3256,25 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>585</v>
+        <v>184</v>
       </c>
       <c r="C11">
-        <v>1170</v>
+        <v>184</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>3360</v>
+        <v>646</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L11" t="s">
         <v>10</v>
@@ -3219,28 +3285,25 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>385</v>
+        <v>262</v>
       </c>
       <c r="C12">
-        <v>762</v>
+        <v>262</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>1513</v>
+        <v>1337</v>
       </c>
       <c r="F12" t="s">
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L12" t="s">
         <v>11</v>
@@ -3251,16 +3314,16 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>369</v>
+        <v>585</v>
       </c>
       <c r="C13">
-        <v>738</v>
+        <v>585</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>1469</v>
+        <v>3360</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>
@@ -3269,7 +3332,7 @@
         <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s">
         <v>51</v>
@@ -3283,16 +3346,16 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C14">
-        <v>738</v>
+        <v>377</v>
       </c>
       <c r="D14">
         <v>9</v>
       </c>
       <c r="E14">
-        <v>1469</v>
+        <v>1495</v>
       </c>
       <c r="F14" t="s">
         <v>38</v>
@@ -3301,7 +3364,7 @@
         <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
         <v>51</v>
@@ -3315,16 +3378,16 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C15">
-        <v>764</v>
+        <v>369</v>
       </c>
       <c r="D15">
         <v>9</v>
       </c>
       <c r="E15">
-        <v>1506</v>
+        <v>1469</v>
       </c>
       <c r="F15" t="s">
         <v>38</v>
@@ -3333,7 +3396,7 @@
         <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
         <v>51</v>
@@ -3347,22 +3410,25 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>260</v>
+        <v>385</v>
       </c>
       <c r="C16">
-        <v>521</v>
+        <v>385</v>
       </c>
       <c r="D16">
         <v>9</v>
       </c>
       <c r="E16">
-        <v>1063</v>
+        <v>1513</v>
       </c>
       <c r="F16" t="s">
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
       </c>
       <c r="I16" t="s">
         <v>51</v>
@@ -3376,25 +3442,25 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>905</v>
+        <v>390</v>
       </c>
       <c r="C17">
-        <v>1805</v>
+        <v>390</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>5016</v>
+        <v>1532</v>
       </c>
       <c r="F17" t="s">
         <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s">
         <v>51</v>
@@ -3408,25 +3474,22 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>504</v>
+        <v>246</v>
       </c>
       <c r="C18">
-        <v>999</v>
+        <v>247</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>2342</v>
+        <v>1007</v>
       </c>
       <c r="F18" t="s">
         <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
         <v>51</v>
@@ -3440,16 +3503,16 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>379</v>
+        <v>905</v>
       </c>
       <c r="C19">
-        <v>749</v>
+        <v>905</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>1586</v>
+        <v>5016</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
@@ -3458,7 +3521,7 @@
         <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
         <v>51</v>
@@ -3472,31 +3535,28 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>1515</v>
+        <v>504</v>
       </c>
       <c r="C20">
-        <v>1040</v>
+        <v>504</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>7288</v>
+        <v>2342</v>
       </c>
       <c r="F20" t="s">
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L20" t="s">
         <v>19</v>
@@ -3507,31 +3567,28 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>1418</v>
+        <v>379</v>
       </c>
       <c r="C21">
-        <v>592</v>
+        <v>379</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>7940</v>
+        <v>1586</v>
       </c>
       <c r="F21" t="s">
         <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L21" t="s">
         <v>20</v>
@@ -3542,31 +3599,25 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>1529</v>
+        <v>184</v>
       </c>
       <c r="C22">
-        <v>820</v>
+        <v>184</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>7940</v>
+        <v>646</v>
       </c>
       <c r="F22" t="s">
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L22" t="s">
         <v>21</v>
@@ -3577,31 +3628,25 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>1529</v>
+        <v>262</v>
       </c>
       <c r="C23">
-        <v>820</v>
+        <v>838</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>7940</v>
+        <v>1337</v>
       </c>
       <c r="F23" t="s">
         <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L23" t="s">
         <v>22</v>
@@ -3612,16 +3657,16 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>1422</v>
+        <v>1515</v>
       </c>
       <c r="C24">
-        <v>606</v>
+        <v>520</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>7940</v>
+        <v>7288</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
@@ -3630,7 +3675,7 @@
         <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s">
         <v>52</v>
@@ -3647,22 +3692,25 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>1343</v>
+        <v>1453</v>
       </c>
       <c r="C25">
-        <v>517</v>
+        <v>334</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25">
-        <v>7726</v>
+        <v>7938</v>
       </c>
       <c r="F25" t="s">
         <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="H25" t="s">
+        <v>43</v>
       </c>
       <c r="I25" t="s">
         <v>52</v>
@@ -3679,25 +3727,25 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>1838</v>
+        <v>1447</v>
       </c>
       <c r="C26">
-        <v>1655</v>
+        <v>328</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E26">
-        <v>8395</v>
+        <v>7938</v>
       </c>
       <c r="F26" t="s">
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s">
         <v>52</v>
@@ -3714,25 +3762,25 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>1596</v>
+        <v>1418</v>
       </c>
       <c r="C27">
-        <v>1015</v>
+        <v>299</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>8336</v>
+        <v>7938</v>
       </c>
       <c r="F27" t="s">
         <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
         <v>52</v>
@@ -3749,25 +3797,25 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>1472</v>
+        <v>1424</v>
       </c>
       <c r="C28">
-        <v>767</v>
+        <v>305</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E28">
-        <v>8181</v>
+        <v>7938</v>
       </c>
       <c r="F28" t="s">
         <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s">
         <v>52</v>
@@ -3777,6 +3825,189 @@
       </c>
       <c r="L28" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>1336</v>
+      </c>
+      <c r="C29">
+        <v>252</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>7726</v>
+      </c>
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>1838</v>
+      </c>
+      <c r="C30">
+        <v>830</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>8395</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1596</v>
+      </c>
+      <c r="C31">
+        <v>512</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>8336</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1472</v>
+      </c>
+      <c r="C32">
+        <v>388</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>8181</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1333</v>
+      </c>
+      <c r="C33">
+        <v>193</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <v>7735</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>1346</v>
+      </c>
+      <c r="C34">
+        <v>262</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>8217</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/Moore_R10_PDS.xlsx
+++ b/data/Moore_R10_PDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="10515" windowHeight="4695" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="10515" windowHeight="4695"/>
   </bookViews>
   <sheets>
     <sheet name="Moore_R10_PDS" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="59">
   <si>
     <t>Correct;#Resets;#OQs;#EQs;#symbols;fileName;Algorithm;CEprocessing;Teacher;BB;</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>Quotient</t>
+  </si>
+  <si>
+    <t>GoodSplit</t>
+  </si>
+  <si>
+    <t>maxLen:2</t>
+  </si>
+  <si>
+    <t>maxLen:2 + EQtoStop</t>
   </si>
 </sst>
 </file>
@@ -1162,8 +1171,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="9964928"/>
-        <c:axId val="9966720"/>
+        <c:axId val="135123712"/>
+        <c:axId val="135125248"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1236,11 +1245,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="9974528"/>
-        <c:axId val="9968256"/>
+        <c:axId val="135399296"/>
+        <c:axId val="135397376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="9964928"/>
+        <c:axId val="135123712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1258,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="9966720"/>
+        <c:crossAx val="135125248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1257,7 +1266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9966720"/>
+        <c:axId val="135125248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,12 +1277,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="9964928"/>
+        <c:crossAx val="135123712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="9968256"/>
+        <c:axId val="135397376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,19 +1304,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="9974528"/>
+        <c:crossAx val="135399296"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="9974528"/>
+        <c:axId val="135399296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,7 +1324,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="9968256"/>
+        <c:crossAx val="135397376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1326,7 +1334,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1747,8 +1754,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="10110848"/>
-        <c:axId val="10112384"/>
+        <c:axId val="193938944"/>
+        <c:axId val="193940480"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1821,11 +1828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="10120192"/>
-        <c:axId val="10118272"/>
+        <c:axId val="193952384"/>
+        <c:axId val="193950464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="10110848"/>
+        <c:axId val="193938944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,7 +1841,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10112384"/>
+        <c:crossAx val="193940480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1842,7 +1849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10112384"/>
+        <c:axId val="193940480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,12 +1860,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10110848"/>
+        <c:crossAx val="193938944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10118272"/>
+        <c:axId val="193950464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1880,19 +1887,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10120192"/>
+        <c:crossAx val="193952384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="10120192"/>
+        <c:axId val="193952384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,7 +1907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10118272"/>
+        <c:crossAx val="193950464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1911,7 +1917,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2332,8 +2337,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="10177152"/>
-        <c:axId val="10187136"/>
+        <c:axId val="193992960"/>
+        <c:axId val="194002944"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2406,11 +2411,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="10194944"/>
-        <c:axId val="10188672"/>
+        <c:axId val="194006400"/>
+        <c:axId val="194004480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="10177152"/>
+        <c:axId val="193992960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,7 +2424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10187136"/>
+        <c:crossAx val="194002944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2427,7 +2432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10187136"/>
+        <c:axId val="194002944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2438,12 +2443,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10177152"/>
+        <c:crossAx val="193992960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10188672"/>
+        <c:axId val="194004480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2472,12 +2477,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10194944"/>
+        <c:crossAx val="194006400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="10194944"/>
+        <c:axId val="194006400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,7 +2491,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10188672"/>
+        <c:crossAx val="194004480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2532,7 +2537,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="82" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2911,10 +2916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4010,6 +4015,64 @@
         <v>53</v>
       </c>
     </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>602</v>
+      </c>
+      <c r="C36">
+        <v>602</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>2631</v>
+      </c>
+      <c r="F36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>199</v>
+      </c>
+      <c r="C37">
+        <v>199</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>752</v>
+      </c>
+      <c r="F37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
